--- a/01_Production_quantities/Non-metallic Minerals/Cement_production.xlsx
+++ b/01_Production_quantities/Non-metallic Minerals/Cement_production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX\01_Production_quantities\Non-metallic Minerals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488C6603-86A2-4BA8-A271-4F9335C7EE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED1E7D-565B-4A06-86F9-268469CE324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25310" yWindow="-5170" windowWidth="25420" windowHeight="15250" xr2:uid="{A68F1806-DB76-429B-87B9-CF1285EB41D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A68F1806-DB76-429B-87B9-CF1285EB41D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -529,9 +529,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>AFR</t>
   </si>
   <si>
@@ -563,6 +560,9 @@
   </si>
   <si>
     <t>Robbie Andrew. Global CO2 emissions from cement production. The Cement Production dataset. Available at https://zenodo.org/records/7875557#.ZFtweHZBybh (2023).</t>
+  </si>
+  <si>
+    <t>Country / Region</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,15 +1013,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1426,7 +1426,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" s="1">
         <v>202692.93400000001</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" s="1">
         <v>10650</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="1">
         <v>123824.25817700001</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" s="1">
         <v>40573</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" s="1">
         <v>113546.76615699999</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" s="1">
         <v>245565.348829</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156" s="1">
         <v>372652.93989900005</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="2">
         <v>105701.441361</v>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
